--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1353757.572929122</v>
+        <v>1457937.207380194</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.16790474331423</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>272.67572503326</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -868,19 +870,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>237.2130798667824</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>158.5777123265225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>20.29515656310261</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>57.29212650174304</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>175.4412655110443</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>208.3748099436939</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>53.70969583585409</v>
       </c>
       <c r="E8" t="n">
-        <v>150.1031320206884</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>77.0762897955116</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>151.663988130746</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.7084378797731</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.3135037226517</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>78.58522891595192</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.5188249813913</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>21.23835815356799</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2722,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189198</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060555</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>51.36569740309876</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.831980181942</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.026033500074</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>86.09789039964352</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>144.7250005831139</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>245.9454996361808</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U46" t="n">
-        <v>241.1435815093809</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379707</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X2" t="n">
-        <v>2435.796531379707</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y2" t="n">
-        <v>2045.657199403895</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4395,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
         <v>624.6477645191717</v>
@@ -4477,13 +4479,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>1184.402419659765</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.676548429999</v>
+        <v>1184.402419659765</v>
       </c>
       <c r="X4" t="n">
-        <v>941.4970410294717</v>
+        <v>956.4128687617472</v>
       </c>
       <c r="Y4" t="n">
-        <v>941.4970410294717</v>
+        <v>956.4128687617472</v>
       </c>
     </row>
     <row r="5">
@@ -4571,19 +4573,19 @@
         <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4604,13 +4606,13 @@
         <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.020896318616</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.675339798491</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X7" t="n">
-        <v>1179.461940292386</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>958.6693611488557</v>
+        <v>944.7237329438971</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.418012197379</v>
+        <v>1672.191441142817</v>
       </c>
       <c r="C8" t="n">
-        <v>1402.455495256968</v>
+        <v>1672.191441142817</v>
       </c>
       <c r="D8" t="n">
-        <v>1044.189796650217</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.017852261501</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>509.7358901245717</v>
+        <v>726.2447449267036</v>
       </c>
       <c r="C10" t="n">
-        <v>509.7358901245717</v>
+        <v>557.3085619987967</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>557.3085619987967</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>409.3954684164036</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>409.3954684164036</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>241.6926317911225</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1684.268143239207</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1684.268143239207</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1429.58365503332</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>1140.166484996359</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="X10" t="n">
-        <v>912.1769340983416</v>
+        <v>1128.685788900473</v>
       </c>
       <c r="Y10" t="n">
-        <v>691.3843549548114</v>
+        <v>907.8932097569433</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,22 +5126,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438171</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000582</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138411</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232838</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5534,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>954.2476448606602</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>785.3114619327533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>635.1948225204176</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>487.2817289380245</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>340.3917814401141</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>173.195682154994</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>173.195682154994</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1135.8961096909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218162</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866304</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961266</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>530.3315352860773</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C25" t="n">
-        <v>530.3315352860773</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>653.1541313646966</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6208,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3007.624207651098</v>
+        <v>2824.769373306004</v>
       </c>
       <c r="C28" t="n">
-        <v>2838.688024723192</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="D28" t="n">
-        <v>2688.571385310856</v>
+        <v>2505.716550965761</v>
       </c>
       <c r="E28" t="n">
-        <v>2540.658291728463</v>
+        <v>2357.803457383368</v>
       </c>
       <c r="F28" t="n">
-        <v>2393.768344230552</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>3227.210417279774</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481338</v>
+        <v>3006.417838136244</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3807.864035926976</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4102.283767206192</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098192</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819123</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695765</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871834</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F31" t="n">
-        <v>369.499740389273</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570813</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580256</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580256</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580256</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924454</v>
+        <v>4517.069482196494</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718567</v>
+        <v>4262.384993990608</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681606</v>
+        <v>3972.967823953647</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783589</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640059</v>
+        <v>3524.185693912099</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6685,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>3051.062654156519</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378165</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172279</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135318</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237301</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093771</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>1018.438627038652</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>849.5024441107454</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>699.3858046984096</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>551.4727111160165</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>404.5827636181061</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015258</v>
+        <v>1648.869221910439</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>1420.879671012422</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>1200.087091868892</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M45" t="n">
-        <v>3210.485548300425</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336244</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.7822433412</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667961</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.30196929556061</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.680607402613617</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.31315520054596</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>125.1956044930012</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>125.5054897610393</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516633</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>114.1584408891701</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -24892,7 +24894,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891701</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>31.77834493961042</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>79.42624789262533</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>80.9846548059233</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U46" t="n">
-        <v>45.04089287986326</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
   </sheetData>
@@ -26317,34 +26319,34 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="F2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062535</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
@@ -26366,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
+        <v>92183.89891818169</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.8989181817</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26522,19 +26524,19 @@
         <v>-1015711.479041991</v>
       </c>
       <c r="C6" t="n">
-        <v>313033.266685602</v>
+        <v>313033.2666856018</v>
       </c>
       <c r="D6" t="n">
-        <v>313033.266685602</v>
+        <v>313033.2666856021</v>
       </c>
       <c r="E6" t="n">
-        <v>64934.76902816084</v>
+        <v>64934.76902816111</v>
       </c>
       <c r="F6" t="n">
-        <v>390347.2308355164</v>
+        <v>390347.2308355161</v>
       </c>
       <c r="G6" t="n">
-        <v>390347.230835516</v>
+        <v>390347.2308355163</v>
       </c>
       <c r="H6" t="n">
         <v>390347.2308355161</v>
@@ -26543,22 +26545,22 @@
         <v>390347.230835516</v>
       </c>
       <c r="J6" t="n">
-        <v>172816.0284382385</v>
+        <v>172816.0284382387</v>
       </c>
       <c r="K6" t="n">
-        <v>390347.230835516</v>
+        <v>390347.2308355162</v>
       </c>
       <c r="L6" t="n">
-        <v>390347.2308355162</v>
+        <v>390347.2308355161</v>
       </c>
       <c r="M6" t="n">
-        <v>305292.2029000043</v>
+        <v>305292.2029000042</v>
       </c>
       <c r="N6" t="n">
         <v>390347.2308355162</v>
       </c>
       <c r="O6" t="n">
-        <v>390347.2308355162</v>
+        <v>390347.2308355164</v>
       </c>
       <c r="P6" t="n">
         <v>390347.2308355162</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324.5659369201663</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>97.05537564520904</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>14.92456345704559</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>67.13194306251467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>362.4386851003779</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>328.9458121543105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>50.26838987799286</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>10.20984340840093</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>300.9733457848289</v>
       </c>
       <c r="E8" t="n">
-        <v>231.8272380515734</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>67.67872511880918</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>67.88496114542323</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>579.5299594447131</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539308</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>165.2255134509767</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>428.7353800421375</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>318.3985571819314</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34226,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>368.6279838366852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>440.9755796648388</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740566</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>297.3936679588043</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899027</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>176.2645232599131</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37859,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37874,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,19 +38098,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>237.2862717533519</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1457937.207380194</v>
+        <v>1453924.597366201</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>57.29212650174214</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>272.67572503326</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>237.2130798667824</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.46549070080415</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.29515656310261</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>68.85005436466979</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.3748099436939</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>53.70969583585409</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>94.8127598026153</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>77.0762897955116</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>76.17049831699856</v>
       </c>
       <c r="E13" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8697920431071</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>100.0416311957213</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.24347904695871</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365955</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>21.23835815356799</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>260.4394343112825</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>113.6427030833208</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>66.25628701154712</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>86.09789039964352</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995486</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.344253709365</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>2403.03827352421</v>
       </c>
     </row>
     <row r="3">
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.7644039315074</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7644039315074</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V4" t="n">
-        <v>1184.402419659765</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="W4" t="n">
-        <v>1184.402419659765</v>
+        <v>1416.110762621058</v>
       </c>
       <c r="X4" t="n">
-        <v>956.4128687617472</v>
+        <v>1188.12121172304</v>
       </c>
       <c r="Y4" t="n">
-        <v>956.4128687617472</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818513</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.7237329438971</v>
+        <v>917.616325937273</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>748.6801430093661</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>450.6504100146373</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>303.7604625167269</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>136.0576258914458</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>136.0576258914458</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845646</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.7237329438971</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1672.191441142817</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1672.191441142817</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142817</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>726.2447449267036</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>557.3085619987967</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>557.3085619987967</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>409.3954684164036</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>409.3954684164036</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>241.6926317911225</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.675339798491</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.685788900473</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>907.8932097569433</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>801.6918836311999</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>632.755700703293</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614396</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2854.44064873475</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2389.141387573231</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2169.539922596173</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1880.464695940371</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1625.780207734484</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="23">
@@ -5971,67 +5971,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,16 +6080,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>803.2707707770323</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>653.1541313646966</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306004</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>2655.833190378097</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>2505.716550965761</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>2357.803457383368</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053499</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.37685307644</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420638</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.617138214751</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.199968177791</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279774</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136244</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.53722908186</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4623.787448650996</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196494</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990608</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953647</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912099</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459586</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180517</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D37" t="n">
-        <v>599.6019060180517</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E37" t="n">
-        <v>599.6019060180517</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761984</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1018.438627038652</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>849.5024441107454</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>699.3858046984096</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>551.4727111160165</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>404.5827636181061</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578601</v>
@@ -7329,55 +7329,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1938.2863919474</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1648.869221910439</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1420.879671012422</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1200.087091868892</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7548,19 +7548,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>72.44497470121379</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>28.15649395853745</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.37941682720998</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7828069546859</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>125.1956044930012</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610393</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>31.77834493961042</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>99.26785128072173</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>79.42624789262533</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
@@ -26325,22 +26325,22 @@
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062536</v>
@@ -26349,10 +26349,10 @@
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1015711.479041991</v>
+        <v>-1015711.47904199</v>
       </c>
       <c r="C6" t="n">
         <v>313033.2666856018</v>
       </c>
       <c r="D6" t="n">
-        <v>313033.2666856021</v>
+        <v>313033.266685602</v>
       </c>
       <c r="E6" t="n">
-        <v>64934.76902816111</v>
+        <v>64587.38977380362</v>
       </c>
       <c r="F6" t="n">
-        <v>390347.2308355161</v>
+        <v>389999.8515811593</v>
       </c>
       <c r="G6" t="n">
-        <v>390347.2308355163</v>
+        <v>389999.8515811597</v>
       </c>
       <c r="H6" t="n">
-        <v>390347.2308355161</v>
+        <v>389999.8515811592</v>
       </c>
       <c r="I6" t="n">
-        <v>390347.230835516</v>
+        <v>389999.8515811592</v>
       </c>
       <c r="J6" t="n">
-        <v>172816.0284382387</v>
+        <v>172468.6491838818</v>
       </c>
       <c r="K6" t="n">
-        <v>390347.2308355162</v>
+        <v>389999.8515811591</v>
       </c>
       <c r="L6" t="n">
-        <v>390347.2308355161</v>
+        <v>389999.8515811591</v>
       </c>
       <c r="M6" t="n">
-        <v>305292.2029000042</v>
+        <v>304944.8236456471</v>
       </c>
       <c r="N6" t="n">
-        <v>390347.2308355162</v>
+        <v>389999.8515811592</v>
       </c>
       <c r="O6" t="n">
-        <v>390347.2308355164</v>
+        <v>389999.851581159</v>
       </c>
       <c r="P6" t="n">
-        <v>390347.2308355162</v>
+        <v>389999.8515811592</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>325.4417151617384</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>97.05537564520904</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>14.92456345704559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.1191626512907</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>362.4386851003779</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>27.5023660451683</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.20984340840093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>300.9733457848289</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>274.9183408758537</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>67.67872511880918</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>190.707856698949</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29021,7 +29021,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>277.4567226539308</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>318.3985571819314</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>519.7862086120936</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>138.9023428740566</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>176.2645232599131</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>388.4444965287602</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1453924.597366201</v>
+        <v>1455685.127668986</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.29212650174214</v>
+        <v>351.8998908890641</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>15.78862466349263</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.46549070080415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>196.1623266599242</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>68.85005436466979</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>51.06561173382029</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>218.8546041744731</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>94.8127598026153</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>61.42978662487899</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>76.17049831699856</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>121.8000472740356</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576173</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8697920431071</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>107.3363007608863</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>119.6383426943727</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>100.0416311957213</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>57.24347904695871</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365955</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>40.36264995190479</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>260.4394343112825</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605711216</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>66.25628701154712</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229343</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>142.1343012721606</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.03827352421</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y2" t="n">
-        <v>2403.03827352421</v>
+        <v>2403.038273524211</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>525.6839958452714</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>525.6839958452714</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>375.5673564329356</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>375.5673564329356</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>228.6774089350253</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658018</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1705.527932658018</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W4" t="n">
-        <v>1416.110762621058</v>
+        <v>935.3220115735285</v>
       </c>
       <c r="X4" t="n">
-        <v>1188.12121172304</v>
+        <v>707.3324606755111</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>707.3324606755111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2185.045504370168</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1816.082987429756</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4612,7 +4612,7 @@
         <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="6">
@@ -4637,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>917.616325937273</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C7" t="n">
-        <v>748.6801430093661</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D7" t="n">
-        <v>598.5635035970304</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>450.6504100146373</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>303.7604625167269</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0576258914458</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0576258914458</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1875.713122094735</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.464090846021</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W7" t="n">
-        <v>1548.04692080906</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X7" t="n">
-        <v>1320.057369911043</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y7" t="n">
-        <v>1099.264790767513</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1442.617229168678</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1084.351530561927</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>698.563277963683</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>287.5773731740755</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2198.179586173211</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1865.244258568413</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468473</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311999</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>632.755700703293</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614396</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,25 +5454,25 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2225.50344847599</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2225.50344847599</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1936.428221820188</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W16" t="n">
         <v>1647.011051783227</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,34 +5527,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1052.829365488567</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>883.8931825606599</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>733.7765431483241</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>585.863449565931</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397314</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.259960360354</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.270409462336</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.477830318806</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2389.141387573231</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2169.539922596173</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1880.464695940371</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1625.780207734484</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1336.363037697518</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>276.2988476925463</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>134.5870165347444</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6600,16 +6600,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,34 +6621,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
         <v>2035.268256189238</v>
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,31 +6718,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121593</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7116,31 +7116,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703059</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536411</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257343</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133985</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310053</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2303.39308229525</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2083.791617318191</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.716390662389</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662389</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625428</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1277.309669727411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>1056.517090583881</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>72.44497470121379</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>24.63391537253361</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>28.15649395853745</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>144.8013425629417</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>60.19363748756457</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>45.37941682720998</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7828069546859</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>40.90318636666073</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>25.74504007796162</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.8157004125011</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>38.89198472948402</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515031</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
@@ -26343,7 +26343,7 @@
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
@@ -26355,7 +26355,7 @@
         <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1015711.47904199</v>
+        <v>-1015711.479041991</v>
       </c>
       <c r="C6" t="n">
-        <v>313033.2666856018</v>
+        <v>313033.2666856023</v>
       </c>
       <c r="D6" t="n">
-        <v>313033.266685602</v>
+        <v>313033.2666856021</v>
       </c>
       <c r="E6" t="n">
-        <v>64587.38977380362</v>
+        <v>64900.03110272498</v>
       </c>
       <c r="F6" t="n">
-        <v>389999.8515811593</v>
+        <v>390312.4929100806</v>
       </c>
       <c r="G6" t="n">
-        <v>389999.8515811597</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="H6" t="n">
-        <v>389999.8515811592</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="I6" t="n">
-        <v>389999.8515811592</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="J6" t="n">
-        <v>172468.6491838818</v>
+        <v>172781.2905128028</v>
       </c>
       <c r="K6" t="n">
-        <v>389999.8515811591</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="L6" t="n">
-        <v>389999.8515811591</v>
+        <v>390312.4929100806</v>
       </c>
       <c r="M6" t="n">
-        <v>304944.8236456471</v>
+        <v>305257.4649745685</v>
       </c>
       <c r="N6" t="n">
-        <v>389999.8515811592</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="O6" t="n">
-        <v>389999.851581159</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="P6" t="n">
-        <v>389999.8515811592</v>
+        <v>390312.4929100804</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.4417151617384</v>
+        <v>30.83395077441651</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>150.2371835955356</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.1191626512907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>158.5207149607588</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.520714960759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>27.5023660451683</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>235.1462264717926</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>192.0671214789803</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>274.9183408758537</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>190.707856698949</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29021,7 +29021,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30392,7 +30392,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>652.047896915769</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34365,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37484,7 +37484,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998936</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
